--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/115.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/115.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2815600462214876</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.74269247021823</v>
+        <v>-1.760633927172377</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07729625813943375</v>
+        <v>0.07006206625793579</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2706139102990212</v>
+        <v>-0.2644799577833124</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3024144092625361</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.741198726072116</v>
+        <v>-1.763835482065102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06931912923268187</v>
+        <v>0.05414243686510063</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2385936393144013</v>
+        <v>-0.2229526113060364</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3269502403839123</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.792856459614083</v>
+        <v>-1.826306726970405</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1025246366156412</v>
+        <v>0.09174732769209537</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2668819109624173</v>
+        <v>-0.2572048414046606</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3372383286626129</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.960188858380438</v>
+        <v>-2.002634645014993</v>
       </c>
       <c r="F5" t="n">
-        <v>0.162770218483425</v>
+        <v>0.1614700786892306</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2932766376075085</v>
+        <v>-0.2890787286109995</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3252047989650058</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.949039293934705</v>
+        <v>-1.966494378980369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3124893432824251</v>
+        <v>0.3310360105887111</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.312600870359717</v>
+        <v>-0.3099628143124171</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2914225561158049</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.844336328995344</v>
+        <v>-1.840714510997231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4208353754780367</v>
+        <v>0.4510691347599803</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3208203982111492</v>
+        <v>-0.3143621977564525</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2485613094008326</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.579070034520782</v>
+        <v>-1.571632794172636</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5886069255792343</v>
+        <v>0.6315807956289857</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3468231940950366</v>
+        <v>-0.3466988465844538</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2114783629783223</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.130070062035911</v>
+        <v>-1.107329420780919</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6696295598481873</v>
+        <v>0.7307912208445682</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3214122294007583</v>
+        <v>-0.3347189870522343</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1869171281297848</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5641794945554486</v>
+        <v>-0.545368392036784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6355252875469652</v>
+        <v>0.6877276317049026</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3030796286949692</v>
+        <v>-0.3180013299648997</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1703621031927927</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08747206347832225</v>
+        <v>-0.05649379315200341</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5923326288393531</v>
+        <v>0.6467873943598716</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2539623620147812</v>
+        <v>-0.2729812350574574</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1526984811880919</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5640994478605826</v>
+        <v>0.5801481468213645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5362597716621375</v>
+        <v>0.615014244377296</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.177068379901</v>
+        <v>-0.2106485038348289</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1243640791790523</v>
       </c>
       <c r="E13" t="n">
-        <v>1.180798565567071</v>
+        <v>1.20460088271938</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3589496656858575</v>
+        <v>0.4245658007955193</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06845476445476734</v>
+        <v>-0.08546361507954257</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.07832000354937271</v>
       </c>
       <c r="E14" t="n">
-        <v>1.778628342047406</v>
+        <v>1.779682934858678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1031747065127384</v>
+        <v>0.1625750401123837</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05193723607615837</v>
+        <v>0.02613276660155489</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.01048300609983557</v>
       </c>
       <c r="E15" t="n">
-        <v>2.446823069326368</v>
+        <v>2.424119417520727</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1328825151278471</v>
+        <v>-0.04337591779508348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1920233638527983</v>
+        <v>0.1606264044402135</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.0783766766733061</v>
       </c>
       <c r="E16" t="n">
-        <v>2.945681671497559</v>
+        <v>2.906568870352358</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4728297208316418</v>
+        <v>-0.3958003730734288</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3629649884642956</v>
+        <v>0.3370582077468076</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1838091606934654</v>
       </c>
       <c r="E17" t="n">
-        <v>3.466691444762814</v>
+        <v>3.428127976290948</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7863113690298869</v>
+        <v>-0.7050919823707713</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5299243446989021</v>
+        <v>0.4992718963306925</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3062959008025509</v>
       </c>
       <c r="E18" t="n">
-        <v>3.947568452492266</v>
+        <v>3.910750571225922</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.115487561886621</v>
+        <v>-1.041284365460703</v>
       </c>
       <c r="G18" t="n">
-        <v>0.653442347204731</v>
+        <v>0.6142303828548883</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4484847851656396</v>
       </c>
       <c r="E19" t="n">
-        <v>4.21137248320314</v>
+        <v>4.182876441031112</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.48805316584113</v>
+        <v>-1.41171717350585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8638288909960236</v>
+        <v>0.8244359144472312</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.609363893486864</v>
       </c>
       <c r="E20" t="n">
-        <v>4.475255214870079</v>
+        <v>4.438514460540678</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.840597246572694</v>
+        <v>-1.746776262828445</v>
       </c>
       <c r="G20" t="n">
-        <v>1.05079245624324</v>
+        <v>1.013950964690077</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7846106196660132</v>
       </c>
       <c r="E21" t="n">
-        <v>4.690300855260421</v>
+        <v>4.655759005643478</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.216922395198429</v>
+        <v>-2.117121712812359</v>
       </c>
       <c r="G21" t="n">
-        <v>1.265915223570527</v>
+        <v>1.219418698727305</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.965099779262813</v>
       </c>
       <c r="E22" t="n">
-        <v>4.775231779007564</v>
+        <v>4.747366918503178</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.514260116279054</v>
+        <v>-2.397138927482191</v>
       </c>
       <c r="G22" t="n">
-        <v>1.423408428809631</v>
+        <v>1.377867333573038</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.139051944614855</v>
       </c>
       <c r="E23" t="n">
-        <v>4.846537993240728</v>
+        <v>4.808909492126913</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.717384135844665</v>
+        <v>-2.606802996496807</v>
       </c>
       <c r="G23" t="n">
-        <v>1.549085985549884</v>
+        <v>1.490576546772895</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.296923869613657</v>
       </c>
       <c r="E24" t="n">
-        <v>4.878750294558146</v>
+        <v>4.824520613771973</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.839075489160225</v>
+        <v>-2.743678912275554</v>
       </c>
       <c r="G24" t="n">
-        <v>1.603277889877146</v>
+        <v>1.546312563858153</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.431380006837493</v>
       </c>
       <c r="E25" t="n">
-        <v>4.946472467252108</v>
+        <v>4.887449898241575</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.027696496542171</v>
+        <v>-2.935847758756912</v>
       </c>
       <c r="G25" t="n">
-        <v>1.706588634903716</v>
+        <v>1.651362600013761</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.539054557008415</v>
       </c>
       <c r="E26" t="n">
-        <v>5.043847586172254</v>
+        <v>4.971847229506597</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.15367075588679</v>
+        <v>-3.06825896929809</v>
       </c>
       <c r="G26" t="n">
-        <v>1.738711217131221</v>
+        <v>1.692472831423892</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.618913793449511</v>
       </c>
       <c r="E27" t="n">
-        <v>5.002228946585943</v>
+        <v>4.931270590578587</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.201583897939183</v>
+        <v>-3.132675701837321</v>
       </c>
       <c r="G27" t="n">
-        <v>1.759798351299286</v>
+        <v>1.708987440044579</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.668377495583777</v>
       </c>
       <c r="E28" t="n">
-        <v>5.017172684123572</v>
+        <v>4.945513889607237</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.218395996173796</v>
+        <v>-3.156549636859649</v>
       </c>
       <c r="G28" t="n">
-        <v>1.7831945715183</v>
+        <v>1.733852220103766</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.686406425150306</v>
       </c>
       <c r="E29" t="n">
-        <v>4.99632007880458</v>
+        <v>4.914480528611672</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.135230334871192</v>
+        <v>-3.075218494842921</v>
       </c>
       <c r="G29" t="n">
-        <v>1.719673455859089</v>
+        <v>1.672542601309983</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.673499427972002</v>
       </c>
       <c r="E30" t="n">
-        <v>4.915605952283402</v>
+        <v>4.819841054924347</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.098514764847732</v>
+        <v>-3.046476905687971</v>
       </c>
       <c r="G30" t="n">
-        <v>1.670279161813552</v>
+        <v>1.609205645887964</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.632833479498838</v>
       </c>
       <c r="E31" t="n">
-        <v>4.76888533391048</v>
+        <v>4.677091686794467</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.038643012521257</v>
+        <v>-2.999753722091281</v>
       </c>
       <c r="G31" t="n">
-        <v>1.611750834807107</v>
+        <v>1.550249185680526</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.570065167566216</v>
       </c>
       <c r="E32" t="n">
-        <v>4.741706745742981</v>
+        <v>4.66533376395835</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.922975430382915</v>
+        <v>-2.89134787716906</v>
       </c>
       <c r="G32" t="n">
-        <v>1.559726354809877</v>
+        <v>1.517396258580738</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.492159930488781</v>
       </c>
       <c r="E33" t="n">
-        <v>4.578835117166392</v>
+        <v>4.500157771388177</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.839874303864285</v>
+        <v>-2.813566935280426</v>
       </c>
       <c r="G33" t="n">
-        <v>1.488380790098681</v>
+        <v>1.435608651018833</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.405551359676534</v>
       </c>
       <c r="E34" t="n">
-        <v>4.445255984437209</v>
+        <v>4.374026897140989</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.756079821922721</v>
+        <v>-2.720483379494506</v>
       </c>
       <c r="G34" t="n">
-        <v>1.42929998238066</v>
+        <v>1.370252229064185</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.314813108063106</v>
       </c>
       <c r="E35" t="n">
-        <v>4.235673764416902</v>
+        <v>4.170356692940286</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.733809025375438</v>
+        <v>-2.698973621192372</v>
       </c>
       <c r="G35" t="n">
-        <v>1.348105780027485</v>
+        <v>1.291379704914929</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.223431246985321</v>
       </c>
       <c r="E36" t="n">
-        <v>3.988025465967058</v>
+        <v>3.946148687244853</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.660650190636503</v>
+        <v>-2.62503171194059</v>
       </c>
       <c r="G36" t="n">
-        <v>1.345384300966756</v>
+        <v>1.298022065606818</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.132633961184556</v>
       </c>
       <c r="E37" t="n">
-        <v>3.769096720404466</v>
+        <v>3.719927511093275</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.580233553729251</v>
+        <v>-2.563196370760292</v>
       </c>
       <c r="G37" t="n">
-        <v>1.234049206459794</v>
+        <v>1.190474061105706</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.042039163447681</v>
       </c>
       <c r="E38" t="n">
-        <v>3.556528586111051</v>
+        <v>3.50374070683999</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.482744318422811</v>
+        <v>-2.474690062579116</v>
       </c>
       <c r="G38" t="n">
-        <v>1.155319918050577</v>
+        <v>1.103145906236823</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9518349621093898</v>
       </c>
       <c r="E39" t="n">
-        <v>3.306771102038665</v>
+        <v>3.258543156162011</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.439295881607987</v>
+        <v>-2.422843446742592</v>
       </c>
       <c r="G39" t="n">
-        <v>1.087146001868801</v>
+        <v>1.024311158546478</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8613467796773726</v>
       </c>
       <c r="E40" t="n">
-        <v>3.099974895863059</v>
+        <v>3.046132423780726</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.389352254889117</v>
+        <v>-2.379487877055925</v>
       </c>
       <c r="G40" t="n">
-        <v>1.027010601339508</v>
+        <v>0.9759667352548484</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.771125075604156</v>
       </c>
       <c r="E41" t="n">
-        <v>2.879119550895995</v>
+        <v>2.823426032327013</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.374791003997964</v>
+        <v>-2.364570897843359</v>
       </c>
       <c r="G41" t="n">
-        <v>1.015230642235694</v>
+        <v>0.9422543937148303</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6819707610407867</v>
       </c>
       <c r="E42" t="n">
-        <v>2.619949432478231</v>
+        <v>2.54606969698174</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.344598169213174</v>
+        <v>-2.337289211423415</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9539792621493991</v>
+        <v>0.8906722130906854</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5931523991499498</v>
       </c>
       <c r="E43" t="n">
-        <v>2.44703083985038</v>
+        <v>2.379195337779684</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.346181632449203</v>
+        <v>-2.335891482443699</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9050980983374063</v>
+        <v>0.8434358992604518</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5056416400712196</v>
       </c>
       <c r="E44" t="n">
-        <v>2.242986019098808</v>
+        <v>2.16839640097861</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.295173181794772</v>
+        <v>-2.28299656987239</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8044805000273811</v>
+        <v>0.7469784334880244</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4196373667658398</v>
       </c>
       <c r="E45" t="n">
-        <v>2.103002202565052</v>
+        <v>2.028022227702773</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.222161517843679</v>
+        <v>-2.205313217169276</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7442553804081742</v>
+        <v>0.6869532142972227</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3355202189473004</v>
       </c>
       <c r="E46" t="n">
-        <v>1.954262117659501</v>
+        <v>1.870448747488482</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.152637093255827</v>
+        <v>-2.140763480014296</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6894716448913037</v>
+        <v>0.6386953620572648</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2550719958422579</v>
       </c>
       <c r="E47" t="n">
-        <v>1.797889614034763</v>
+        <v>1.724063395188397</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.106785916252338</v>
+        <v>-2.090593194541958</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6468141526849338</v>
+        <v>0.590280107905177</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1795147459276466</v>
       </c>
       <c r="E48" t="n">
-        <v>1.668165254133645</v>
+        <v>1.586234410831702</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.949003091494915</v>
+        <v>-1.930320271534636</v>
       </c>
       <c r="G48" t="n">
-        <v>0.546146185763027</v>
+        <v>0.4759669692207146</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1103744951697664</v>
       </c>
       <c r="E49" t="n">
-        <v>1.568435402608034</v>
+        <v>1.482084713613478</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.873987701202406</v>
+        <v>-1.864992181924173</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4815925135602432</v>
+        <v>0.4133225822120685</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04955046103198413</v>
       </c>
       <c r="E50" t="n">
-        <v>1.506272665450506</v>
+        <v>1.426718591021726</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.762497565811997</v>
+        <v>-1.745963281952293</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4261445419741839</v>
+        <v>0.3514746488788005</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.002463876673673591</v>
       </c>
       <c r="E51" t="n">
-        <v>1.383425195090351</v>
+        <v>1.296858865476177</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.703048437619591</v>
+        <v>-1.697944680618773</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3757224134424377</v>
+        <v>0.3032529990786327</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04618775452344283</v>
       </c>
       <c r="E52" t="n">
-        <v>1.266097809788598</v>
+        <v>1.160666861005635</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.651532365798541</v>
+        <v>-1.638889057206693</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3309903640341934</v>
+        <v>0.2582454963241608</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08301853621889084</v>
       </c>
       <c r="E53" t="n">
-        <v>1.231017645632169</v>
+        <v>1.124351091838986</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.624855102721176</v>
+        <v>-1.61721166586814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2963178708301819</v>
+        <v>0.2296896414255238</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1153431297447643</v>
       </c>
       <c r="E54" t="n">
-        <v>1.1346310107202</v>
+        <v>1.026445528474961</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.49735955389582</v>
+        <v>-1.48720634355387</v>
       </c>
       <c r="G54" t="n">
-        <v>0.26175398494554</v>
+        <v>0.1936257153182824</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1444010733599323</v>
       </c>
       <c r="E55" t="n">
-        <v>1.074662456217766</v>
+        <v>0.969546311259063</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.472136684486537</v>
+        <v>-1.449252807491507</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2300532398425442</v>
+        <v>0.1726503365078294</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1712315317661575</v>
       </c>
       <c r="E56" t="n">
-        <v>1.003400314519998</v>
+        <v>0.8963528480994597</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.47450007419717</v>
+        <v>-1.454386470855629</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2327684228267879</v>
+        <v>0.1821243575989382</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1967776284834957</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9683469086886318</v>
+        <v>0.8553134475497868</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.47721053512405</v>
+        <v>-1.459599622185377</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1901927796147256</v>
+        <v>0.1430210005684653</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2212856117622103</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9312346858466042</v>
+        <v>0.8142756210192353</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.478694048145876</v>
+        <v>-1.453790704618217</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1771803635389328</v>
+        <v>0.1321760088227035</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2451350443129844</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9001918807363121</v>
+        <v>0.7847533183801196</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.486464193538177</v>
+        <v>-1.46302783583157</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1643757179871517</v>
+        <v>0.1204747506749542</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.26889342786898</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8858305302735645</v>
+        <v>0.7777867097492427</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.526024016113827</v>
+        <v>-1.503125185937145</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1539667295379903</v>
+        <v>0.1181184440503671</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2932947285695083</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9226767438840924</v>
+        <v>0.8184089952317709</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.521728517931797</v>
+        <v>-1.491162640615259</v>
       </c>
       <c r="G61" t="n">
-        <v>0.134130940571359</v>
+        <v>0.1198388469499487</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3191172171608408</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8962285005888769</v>
+        <v>0.7970983503484809</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.547935149291893</v>
+        <v>-1.528658137113324</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1577821518880231</v>
+        <v>0.1314047394532662</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3465191315995919</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8586582381825508</v>
+        <v>0.7652181670656567</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.596659698201317</v>
+        <v>-1.564007458539495</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1349557265909205</v>
+        <v>0.1126030810493295</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3746805024762595</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8340988178328962</v>
+        <v>0.7405029188229934</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.587971899661297</v>
+        <v>-1.552369948166158</v>
       </c>
       <c r="G64" t="n">
-        <v>0.127509042128047</v>
+        <v>0.09701556969108877</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4026668955200671</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8049448356681648</v>
+        <v>0.7187043280121002</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.651204182811749</v>
+        <v>-1.623776899623085</v>
       </c>
       <c r="G65" t="n">
-        <v>0.107308080725274</v>
+        <v>0.07527206954944107</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4297242823032593</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7511102336814387</v>
+        <v>0.680296687433242</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.672763522716205</v>
+        <v>-1.638744247447533</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09139632142804531</v>
+        <v>0.05988760665784815</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4551341311914535</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7470634305205747</v>
+        <v>0.6607599620996579</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.742913619904773</v>
+        <v>-1.714153929529928</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08319095974870483</v>
+        <v>0.05837497428227818</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4777418150147312</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7377499593798384</v>
+        <v>0.6627243379630412</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.774563996395887</v>
+        <v>-1.734164434619023</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09201805898095908</v>
+        <v>0.06122709693007503</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4956605570356968</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7272717140893398</v>
+        <v>0.6557734695233773</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.819806027999433</v>
+        <v>-1.791403639965123</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1060567355238399</v>
+        <v>0.07185330001797598</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5077124754515</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6647579706677617</v>
+        <v>0.5882086987415454</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.905172168033615</v>
+        <v>-1.874699157845234</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09649614338105954</v>
+        <v>0.06150255027630265</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5131635392859908</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5965399819505899</v>
+        <v>0.5053239998520936</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.972138024539793</v>
+        <v>-1.932024934243005</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08683166597627331</v>
+        <v>0.05012711408666258</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5115726964836097</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5051020631559903</v>
+        <v>0.4129936122157166</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.007620350581713</v>
+        <v>-1.980271768349114</v>
       </c>
       <c r="G72" t="n">
-        <v>0.09195509821610706</v>
+        <v>0.06282630035731653</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5032028638823863</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4510108960524922</v>
+        <v>0.3612618997750482</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.104495718430846</v>
+        <v>-2.07211735809613</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08233469334671725</v>
+        <v>0.0597868694340849</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4884803822754052</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3529920033117344</v>
+        <v>0.2456029747418737</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.124399977229254</v>
+        <v>-2.085289537112735</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05663725717236223</v>
+        <v>0.02697801486969336</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.467860339717155</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2782827597383186</v>
+        <v>0.1677173605816731</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.150960762891642</v>
+        <v>-2.10701808407273</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05780203132212473</v>
+        <v>0.02841194628919829</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4417991799032441</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2498953248856607</v>
+        <v>0.1357144038073875</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.21031544993677</v>
+        <v>-2.165364611870665</v>
       </c>
       <c r="G76" t="n">
-        <v>0.04568208408810943</v>
+        <v>0.01833350185550999</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4108245221340368</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1473149247313736</v>
+        <v>0.02077637953176865</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.205987684362753</v>
+        <v>-2.157834504394363</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03525420740949238</v>
+        <v>0.02052138843411794</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3753906380407737</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1341419587052081</v>
+        <v>0.0008681856855575549</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.204628518851511</v>
+        <v>-2.143083584199093</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06329221001722153</v>
+        <v>0.05127142598784818</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3359149880804294</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08494284303071249</v>
+        <v>-0.05118620067497749</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.218619187811192</v>
+        <v>-2.156606769479748</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05675373458733848</v>
+        <v>0.04404353018283542</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2933888475541263</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1155764031694665</v>
+        <v>-0.03192178064937837</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.261065761455308</v>
+        <v>-2.204138211895225</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1008939528059737</v>
+        <v>0.08112269862331573</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2486518851126631</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1265000958712932</v>
+        <v>-0.01392602003554761</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.252819475278813</v>
+        <v>-2.204032752614098</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1013268080643314</v>
+        <v>0.07643526968008227</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2033892450343305</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1611222204634232</v>
+        <v>0.04167935346264179</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.21050905428869</v>
+        <v>-2.154877709474999</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07911582424365735</v>
+        <v>0.04976194165052082</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1589533187095408</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2699939750455492</v>
+        <v>0.1695243345329263</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.167698095217993</v>
+        <v>-2.116374840739302</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1009285812266423</v>
+        <v>0.07544363763366284</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1156851260946316</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3606086818397085</v>
+        <v>0.2419213440171514</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.080228278628192</v>
+        <v>-2.025035298139784</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1403766484446801</v>
+        <v>0.1154410375250346</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.0746567961875093</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4932748834785369</v>
+        <v>0.3885475212427957</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.932944161409845</v>
+        <v>-1.875641995298893</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1203629953173419</v>
+        <v>0.1013016237583905</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.03688895900380505</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6746239225200744</v>
+        <v>0.5878718586495869</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.800063893170519</v>
+        <v>-1.73459571585826</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1935407182857321</v>
+        <v>0.17651140541238</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.003124578166727717</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9120898912742239</v>
+        <v>0.8308169879649843</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.581321668873802</v>
+        <v>-1.522801211962964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1990922837265597</v>
+        <v>0.1784647631419141</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.02591335515472576</v>
       </c>
       <c r="E88" t="n">
-        <v>1.075978336203173</v>
+        <v>1.007122869741874</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.411776199222899</v>
+        <v>-1.359884723841418</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2180151416028366</v>
+        <v>0.1934399810619689</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04955708524117464</v>
       </c>
       <c r="E89" t="n">
-        <v>1.256082326119761</v>
+        <v>1.208384824686987</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.205202716752957</v>
+        <v>-1.170316943958009</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2522768158161886</v>
+        <v>0.2408006424027853</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0670055007745452</v>
       </c>
       <c r="E90" t="n">
-        <v>1.359977032240335</v>
+        <v>1.325238430233229</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9407635693266381</v>
+        <v>-0.9115277381675991</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2370135523969358</v>
+        <v>0.2310905184434814</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.07732033763335859</v>
       </c>
       <c r="E91" t="n">
-        <v>1.499066805913191</v>
+        <v>1.475072458428083</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6337023451241787</v>
+        <v>-0.6156089953248273</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1630330796766822</v>
+        <v>0.1508548937351788</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07948357266329677</v>
       </c>
       <c r="E92" t="n">
-        <v>1.519499148126795</v>
+        <v>1.504138295522022</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4275955593237027</v>
+        <v>-0.403904997529006</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1458872893883538</v>
+        <v>0.1530821307918193</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07218880992010686</v>
       </c>
       <c r="E93" t="n">
-        <v>1.560581047192743</v>
+        <v>1.55157293576154</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2212699848653659</v>
+        <v>-0.1976785862753112</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1204558624454986</v>
+        <v>0.123970647143363</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05579490174243337</v>
       </c>
       <c r="E94" t="n">
-        <v>1.522329234506894</v>
+        <v>1.502000777555296</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.02408946150178615</v>
+        <v>-0.01087871901670948</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1138245198874588</v>
+        <v>0.1151215116434106</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03299810673270329</v>
       </c>
       <c r="E95" t="n">
-        <v>1.532503694106982</v>
+        <v>1.504802531591211</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1267975854852191</v>
+        <v>0.1459187697707798</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05251332707455442</v>
+        <v>0.05733769568134103</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.008206280144508839</v>
       </c>
       <c r="E96" t="n">
-        <v>1.466224896947252</v>
+        <v>1.427187648719874</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2360817330771258</v>
+        <v>0.2685301372627395</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.009876068836440941</v>
+        <v>-0.008627871673249495</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01277161082149019</v>
       </c>
       <c r="E97" t="n">
-        <v>1.41767112911249</v>
+        <v>1.381445079035755</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2585351158424801</v>
+        <v>0.291973578055392</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03165891945612116</v>
+        <v>-0.02642687989691767</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02652754089184746</v>
       </c>
       <c r="E98" t="n">
-        <v>1.284556332024091</v>
+        <v>1.240521573086583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3104132120614295</v>
+        <v>0.3382450181642683</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08628682707998282</v>
+        <v>-0.08883988609473255</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.03159069181727934</v>
       </c>
       <c r="E99" t="n">
-        <v>1.188487648974625</v>
+        <v>1.155038168627864</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3316908025431722</v>
+        <v>0.3562108724147943</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09000466024449505</v>
+        <v>-0.09278280399359076</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.03491002084147413</v>
       </c>
       <c r="E100" t="n">
-        <v>1.080483178928335</v>
+        <v>1.050979764518675</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3528314533613617</v>
+        <v>0.3743183883862374</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.139572096393375</v>
+        <v>-0.146837768657299</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04139188532012063</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9735805222669566</v>
+        <v>0.9490100837834529</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3244204082218843</v>
+        <v>0.3464503798436088</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1466787927260476</v>
+        <v>-0.1582210749425456</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0633161124900684</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9266117916873441</v>
+        <v>0.910718920619571</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2945345071657482</v>
+        <v>0.3197534415272278</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.172906673344281</v>
+        <v>-0.1883115984844508</v>
       </c>
     </row>
   </sheetData>
